--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer missile.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Enforcer missile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755150A5-6EF8-4A45-AA4A-9FCC08CF94EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -73,13 +74,16 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -328,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +392,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -402,6 +426,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -436,9 +461,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,19 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="47" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -667,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -723,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -779,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -835,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -891,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -947,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1003,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1053,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AI9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AI10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AI11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1091,24 +1117,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
